--- a/Code/Results/Cases/Case_8_6/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_8_6/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.053493783934471</v>
+        <v>3.636313872877281</v>
       </c>
       <c r="C2">
-        <v>0.9408771466851817</v>
+        <v>1.022014927700241</v>
       </c>
       <c r="D2">
-        <v>0.04868581769855496</v>
+        <v>0.03522367426013062</v>
       </c>
       <c r="E2">
-        <v>0.03196962596700503</v>
+        <v>0.03555804961353037</v>
       </c>
       <c r="F2">
-        <v>2.014212861645916</v>
+        <v>1.662951591818796</v>
       </c>
       <c r="G2">
-        <v>0.0008066678690920243</v>
+        <v>0.001952251958820456</v>
       </c>
       <c r="H2">
-        <v>0.0002014140559505329</v>
+        <v>2.167553053933347E-06</v>
       </c>
       <c r="I2">
-        <v>0.0005978326450142291</v>
+        <v>0.0005598040535659266</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.111809172610279</v>
+        <v>0.8535886885217394</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.3786763672548759</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.2700459088304044</v>
       </c>
       <c r="N2">
-        <v>0.4082641887499534</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.9407788132846342</v>
+        <v>0.4202732612045565</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0.8126013633172189</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.532404737596892</v>
+        <v>3.17860262769409</v>
       </c>
       <c r="C3">
-        <v>0.8129063339196421</v>
+        <v>0.8863678493972316</v>
       </c>
       <c r="D3">
-        <v>0.04801968061693884</v>
+        <v>0.03427047615822598</v>
       </c>
       <c r="E3">
-        <v>0.02791393861785241</v>
+        <v>0.03288245182631599</v>
       </c>
       <c r="F3">
-        <v>1.81955512049052</v>
+        <v>1.505817527174216</v>
       </c>
       <c r="G3">
-        <v>0.0008124670344227337</v>
+        <v>0.004602195768544093</v>
       </c>
       <c r="H3">
-        <v>0.001169254589492574</v>
+        <v>0.000298276720031021</v>
       </c>
       <c r="I3">
-        <v>0.001624430093672746</v>
+        <v>0.0006430957887051392</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.031243012317105</v>
+        <v>0.7986650610266608</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.3678331802586143</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.2404431092224684</v>
       </c>
       <c r="N3">
-        <v>0.35696295296664</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9688363618937395</v>
+        <v>0.3693478318777466</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0.8403382594074635</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.212762515308725</v>
+        <v>2.896485280599563</v>
       </c>
       <c r="C4">
-        <v>0.7352684836036758</v>
+        <v>0.8036311836125947</v>
       </c>
       <c r="D4">
-        <v>0.04756865006586253</v>
+        <v>0.03364179239318954</v>
       </c>
       <c r="E4">
-        <v>0.02549763128824623</v>
+        <v>0.03124823602249815</v>
       </c>
       <c r="F4">
-        <v>1.701252980600401</v>
+        <v>1.409460107703083</v>
       </c>
       <c r="G4">
-        <v>0.000816141718248259</v>
+        <v>0.006859800621149437</v>
       </c>
       <c r="H4">
-        <v>0.002194886278794606</v>
+        <v>0.0007449455910188973</v>
       </c>
       <c r="I4">
-        <v>0.002813314642251097</v>
+        <v>0.001012256740880346</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.9821064218139739</v>
+        <v>0.7647532058991402</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.3607358970768857</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.2231063936104931</v>
       </c>
       <c r="N4">
-        <v>0.3255971602171002</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9863632671918765</v>
+        <v>0.3381401728661331</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0.857620495371318</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.08005948183046</v>
+        <v>2.779022127520875</v>
       </c>
       <c r="C5">
-        <v>0.7042085793636659</v>
+        <v>0.7704060770565775</v>
       </c>
       <c r="D5">
-        <v>0.04731830967275208</v>
+        <v>0.03334532251103006</v>
       </c>
       <c r="E5">
-        <v>0.02451706182984337</v>
+        <v>0.03057487743886922</v>
       </c>
       <c r="F5">
-        <v>1.651398288627661</v>
+        <v>1.368556023920732</v>
       </c>
       <c r="G5">
-        <v>0.0008176792565664498</v>
+        <v>0.007937423988965797</v>
       </c>
       <c r="H5">
-        <v>0.002718727657610609</v>
+        <v>0.0009917143749622603</v>
       </c>
       <c r="I5">
-        <v>0.003507564679227304</v>
+        <v>0.001322639252205882</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.9607725020360789</v>
+        <v>0.7497501991379565</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.3572536096458379</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.2158774353366297</v>
       </c>
       <c r="N5">
-        <v>0.3128598730534691</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9929463092829067</v>
+        <v>0.3254514555786017</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0.864380526171816</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.05500158577405</v>
+        <v>2.756803643693218</v>
       </c>
       <c r="C6">
-        <v>0.6995215989745134</v>
+        <v>0.7653516475958497</v>
       </c>
       <c r="D6">
-        <v>0.0472078319937701</v>
+        <v>0.03325983511285369</v>
       </c>
       <c r="E6">
-        <v>0.02434145339737759</v>
+        <v>0.03045310073725083</v>
       </c>
       <c r="F6">
-        <v>1.640799880499472</v>
+        <v>1.359750709738393</v>
       </c>
       <c r="G6">
-        <v>0.0008179494520819789</v>
+        <v>0.008134878347100916</v>
       </c>
       <c r="H6">
-        <v>0.002816673485382504</v>
+        <v>0.001038829918259765</v>
       </c>
       <c r="I6">
-        <v>0.003733531328586004</v>
+        <v>0.001491027577799287</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.955550454581811</v>
+        <v>0.745876084879562</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.3560846555826487</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.214236661290844</v>
       </c>
       <c r="N6">
-        <v>0.3107693934002072</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.993277859389373</v>
+        <v>0.3233675794599975</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0.8650921310440598</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.202680250810715</v>
+        <v>2.876291600061506</v>
       </c>
       <c r="C7">
-        <v>0.7361047689902591</v>
+        <v>0.797758127921611</v>
       </c>
       <c r="D7">
-        <v>0.04737876868276558</v>
+        <v>0.03335806527269058</v>
       </c>
       <c r="E7">
-        <v>0.02544674803399971</v>
+        <v>0.03122379297067779</v>
       </c>
       <c r="F7">
-        <v>1.694187413091427</v>
+        <v>1.392112702751746</v>
       </c>
       <c r="G7">
-        <v>0.0008161977076804956</v>
+        <v>0.007227324908024801</v>
       </c>
       <c r="H7">
-        <v>0.002213296638648554</v>
+        <v>0.0007637743051356338</v>
       </c>
       <c r="I7">
-        <v>0.003083865139076991</v>
+        <v>0.001314435230058919</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.9772120469317755</v>
+        <v>0.7551081671978892</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.3567402137155113</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.2198575791026975</v>
       </c>
       <c r="N7">
-        <v>0.3254884641297764</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.9843739034697165</v>
+        <v>0.3373420280938859</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0.8550029072234508</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.862590916839906</v>
+        <v>3.43112708772486</v>
       </c>
       <c r="C8">
-        <v>0.8982089824045261</v>
+        <v>0.9543164852249504</v>
       </c>
       <c r="D8">
-        <v>0.0482189914675466</v>
+        <v>0.03422646280000041</v>
       </c>
       <c r="E8">
-        <v>0.03050204478212115</v>
+        <v>0.03463621150789065</v>
       </c>
       <c r="F8">
-        <v>1.938293557177829</v>
+        <v>1.563902766275021</v>
       </c>
       <c r="G8">
-        <v>0.0008086893116041522</v>
+        <v>0.004424901121562463</v>
       </c>
       <c r="H8">
-        <v>0.0004482883912582114</v>
+        <v>5.74447395609301E-05</v>
       </c>
       <c r="I8">
-        <v>0.001128125270795088</v>
+        <v>0.0008594751430859304</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.077820305450082</v>
+        <v>0.8109768723344501</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.3655468592027731</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.251304490918244</v>
       </c>
       <c r="N8">
-        <v>0.3906251650233799</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.9477052356922187</v>
+        <v>0.4004607794471298</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0.8160884410395903</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.176935661788946</v>
+        <v>4.565623587981861</v>
       </c>
       <c r="C9">
-        <v>1.222841858861557</v>
+        <v>1.288381680582972</v>
       </c>
       <c r="D9">
-        <v>0.04986179707087146</v>
+        <v>0.03636612357137725</v>
       </c>
       <c r="E9">
-        <v>0.04123561376421447</v>
+        <v>0.0414513857776988</v>
       </c>
       <c r="F9">
-        <v>2.4403189372821</v>
+        <v>1.953331573033878</v>
       </c>
       <c r="G9">
-        <v>0.0007947763723055642</v>
+        <v>0.001625730947411697</v>
       </c>
       <c r="H9">
-        <v>0.0007260539259101861</v>
+        <v>0.0009062586238464121</v>
       </c>
       <c r="I9">
-        <v>0.00179065048029603</v>
+        <v>0.002233492606482201</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.286877793481267</v>
+        <v>0.9465150809441525</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.3906176057587487</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.3290420187242304</v>
       </c>
       <c r="N9">
-        <v>0.5196920368099427</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.8820500705884768</v>
+        <v>0.5273277400547869</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0.7492934873125083</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.103525421258894</v>
+        <v>5.290949581247162</v>
       </c>
       <c r="C10">
-        <v>1.470474244945422</v>
+        <v>1.498011367620109</v>
       </c>
       <c r="D10">
-        <v>0.04987641488704142</v>
+        <v>0.03672680281091489</v>
       </c>
       <c r="E10">
-        <v>0.04906793581944147</v>
+        <v>0.04613094099427251</v>
       </c>
       <c r="F10">
-        <v>2.782851955210646</v>
+        <v>2.147830521032859</v>
       </c>
       <c r="G10">
-        <v>0.0007852459551125751</v>
+        <v>0.01018865219766241</v>
       </c>
       <c r="H10">
-        <v>0.003678278544473557</v>
+        <v>0.003095142432463227</v>
       </c>
       <c r="I10">
-        <v>0.005865795895478421</v>
+        <v>0.005112107039813907</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.419207534016621</v>
+        <v>0.9959125493646539</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.389106539550788</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.3709497026236122</v>
       </c>
       <c r="N10">
-        <v>0.5928884053479209</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.8261650442620478</v>
+        <v>0.5939543702482837</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0.6936394744052121</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.145888881164524</v>
+        <v>5.203905052327286</v>
       </c>
       <c r="C11">
-        <v>1.592863975066678</v>
+        <v>1.524853866457363</v>
       </c>
       <c r="D11">
-        <v>0.04312161996561947</v>
+        <v>0.03645050492212398</v>
       </c>
       <c r="E11">
-        <v>0.05221851946598211</v>
+        <v>0.04791733297124701</v>
       </c>
       <c r="F11">
-        <v>2.643176505999833</v>
+        <v>1.906250977339354</v>
       </c>
       <c r="G11">
-        <v>0.0007826490563466659</v>
+        <v>0.04410120447272448</v>
       </c>
       <c r="H11">
-        <v>0.02247134351513935</v>
+        <v>0.02147446460229219</v>
       </c>
       <c r="I11">
-        <v>0.007643041324518762</v>
+        <v>0.006203250719011066</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.283769306155378</v>
+        <v>0.8324651425639686</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.3229530428930119</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.3158058042025687</v>
       </c>
       <c r="N11">
-        <v>0.4410158571919851</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.7355065469830748</v>
+        <v>0.4332179238255947</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0.6623345825832416</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.995890688564941</v>
+        <v>5.030872998490509</v>
       </c>
       <c r="C12">
-        <v>1.641451493232864</v>
+        <v>1.525599151521988</v>
       </c>
       <c r="D12">
-        <v>0.03930364127666941</v>
+        <v>0.03895395372272503</v>
       </c>
       <c r="E12">
-        <v>0.06111960488742874</v>
+        <v>0.0550779943339279</v>
       </c>
       <c r="F12">
-        <v>2.465222212509772</v>
+        <v>1.717644157406923</v>
       </c>
       <c r="G12">
-        <v>0.0007822854246633209</v>
+        <v>0.06831926915186415</v>
       </c>
       <c r="H12">
-        <v>0.06083069555408116</v>
+        <v>0.0598000162359611</v>
       </c>
       <c r="I12">
-        <v>0.007689466105216702</v>
+        <v>0.006101139939358902</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.153945782174034</v>
+        <v>0.717976982627647</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2802872941898897</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.2729508746782869</v>
       </c>
       <c r="N12">
-        <v>0.3179316019531484</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.688902591468695</v>
+        <v>0.3079720527522767</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0.6708761977633557</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.677110380994293</v>
+        <v>4.797320668967359</v>
       </c>
       <c r="C13">
-        <v>1.637124671451545</v>
+        <v>1.525596928436357</v>
       </c>
       <c r="D13">
-        <v>0.03721657000172929</v>
+        <v>0.04156510784912371</v>
       </c>
       <c r="E13">
-        <v>0.07459218486049402</v>
+        <v>0.06808831908477408</v>
       </c>
       <c r="F13">
-        <v>2.237873482228864</v>
+        <v>1.568600589370263</v>
       </c>
       <c r="G13">
-        <v>0.0007836682191428577</v>
+        <v>0.06212718621155133</v>
       </c>
       <c r="H13">
-        <v>0.1158239679203916</v>
+        <v>0.1150595342155754</v>
       </c>
       <c r="I13">
-        <v>0.006677160875928401</v>
+        <v>0.00551287641710374</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.014169580869542</v>
+        <v>0.6344493432879261</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.251840057007648</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.2382598440449541</v>
       </c>
       <c r="N13">
-        <v>0.2109260137924309</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.6694464199317296</v>
+        <v>0.2033934431400652</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0.6941787310434577</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.377450022577875</v>
+        <v>4.602367401053527</v>
       </c>
       <c r="C14">
-        <v>1.610644979450797</v>
+        <v>1.525009209852442</v>
       </c>
       <c r="D14">
-        <v>0.03672978499754542</v>
+        <v>0.04298486130518597</v>
       </c>
       <c r="E14">
-        <v>0.08699009961449278</v>
+        <v>0.08139444931196493</v>
       </c>
       <c r="F14">
-        <v>2.056812541139067</v>
+        <v>1.47711690355348</v>
       </c>
       <c r="G14">
-        <v>0.0007854246558560054</v>
+        <v>0.04518856362086865</v>
       </c>
       <c r="H14">
-        <v>0.1645217459210215</v>
+        <v>0.164025920151559</v>
       </c>
       <c r="I14">
-        <v>0.005667605223852235</v>
+        <v>0.004999950865941294</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.9124173769234147</v>
+        <v>0.5867322806471194</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2368668737275605</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.2167332953675398</v>
       </c>
       <c r="N14">
-        <v>0.1468971817666755</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.6696628021193112</v>
+        <v>0.1421673684615357</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0.7139068935333626</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.266456799385935</v>
+        <v>4.5367126714699</v>
       </c>
       <c r="C15">
-        <v>1.593464890352777</v>
+        <v>1.523959462555013</v>
       </c>
       <c r="D15">
-        <v>0.03677087225204367</v>
+        <v>0.04296282117199013</v>
       </c>
       <c r="E15">
-        <v>0.08992898189608667</v>
+        <v>0.08517896033401939</v>
       </c>
       <c r="F15">
-        <v>2.000152711473703</v>
+        <v>1.457668609780853</v>
       </c>
       <c r="G15">
-        <v>0.0007862526453991703</v>
+        <v>0.03666669661186006</v>
       </c>
       <c r="H15">
-        <v>0.1767661025400997</v>
+        <v>0.1763795394138015</v>
       </c>
       <c r="I15">
-        <v>0.005339156589479366</v>
+        <v>0.004899753523990746</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.8836930876180347</v>
+        <v>0.5779562658394184</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.2347477587073215</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.2119179627296717</v>
       </c>
       <c r="N15">
-        <v>0.1322506824706977</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.6734025557932686</v>
+        <v>0.1286330436948617</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0.7186229348063833</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.936131423250856</v>
+        <v>4.372540137701037</v>
       </c>
       <c r="C16">
-        <v>1.486730590672892</v>
+        <v>1.498313407840385</v>
       </c>
       <c r="D16">
-        <v>0.03715524183853702</v>
+        <v>0.03943346774923029</v>
       </c>
       <c r="E16">
-        <v>0.08325077657051594</v>
+        <v>0.08333395896098139</v>
       </c>
       <c r="F16">
-        <v>1.899500969964507</v>
+        <v>1.486996933675755</v>
       </c>
       <c r="G16">
-        <v>0.0007900410187978067</v>
+        <v>0.008222531299717062</v>
       </c>
       <c r="H16">
-        <v>0.1629424882117689</v>
+        <v>0.1629258581210848</v>
       </c>
       <c r="I16">
-        <v>0.003799766060117449</v>
+        <v>0.00409661506435377</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.8557361539282837</v>
+        <v>0.6079028196034528</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2507852313283081</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.2167241936698048</v>
       </c>
       <c r="N16">
-        <v>0.1267656996582005</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.6985135235381037</v>
+        <v>0.1274682257630744</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0.7151107343701284</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.84054002080876</v>
+        <v>4.333362015115028</v>
       </c>
       <c r="C17">
-        <v>1.419480471596614</v>
+        <v>1.467601349641882</v>
       </c>
       <c r="D17">
-        <v>0.03755188934071896</v>
+        <v>0.03706388220838086</v>
       </c>
       <c r="E17">
-        <v>0.07096882251535597</v>
+        <v>0.07298864379642112</v>
       </c>
       <c r="F17">
-        <v>1.91731947491165</v>
+        <v>1.546376014380087</v>
       </c>
       <c r="G17">
-        <v>0.0007920282978822989</v>
+        <v>0.002171761518996007</v>
       </c>
       <c r="H17">
-        <v>0.1247035224680388</v>
+        <v>0.1247916152452007</v>
       </c>
       <c r="I17">
-        <v>0.003212377288615897</v>
+        <v>0.003760300821425311</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.8871188270566392</v>
+        <v>0.652295735624925</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2702962100201063</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.2297163456758113</v>
       </c>
       <c r="N17">
-        <v>0.1539434208035573</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.7167069117257263</v>
+        <v>0.1569169448029797</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0.7100260322524434</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.941857009871399</v>
+        <v>4.428532090268391</v>
       </c>
       <c r="C18">
-        <v>1.376798886638824</v>
+        <v>1.443370786604078</v>
       </c>
       <c r="D18">
-        <v>0.03882504189366331</v>
+        <v>0.03538425984493188</v>
       </c>
       <c r="E18">
-        <v>0.05609631955688599</v>
+        <v>0.05826066420545928</v>
       </c>
       <c r="F18">
-        <v>2.045532927624748</v>
+        <v>1.665748382346948</v>
       </c>
       <c r="G18">
-        <v>0.0007925930603771558</v>
+        <v>0.0008115218192155105</v>
       </c>
       <c r="H18">
-        <v>0.07182539304921676</v>
+        <v>0.07193816198681446</v>
       </c>
       <c r="I18">
-        <v>0.002892821197405304</v>
+        <v>0.003449837454359006</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.9793436813233711</v>
+        <v>0.7285680165251023</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.300204435469098</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.25675561486063</v>
       </c>
       <c r="N18">
-        <v>0.22282822317284</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.7387568265205857</v>
+        <v>0.2276023377935843</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0.7041575804938418</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.180707285528626</v>
+        <v>4.622606317323743</v>
       </c>
       <c r="C19">
-        <v>1.359360220336782</v>
+        <v>1.435181661940533</v>
       </c>
       <c r="D19">
-        <v>0.04178429410024176</v>
+        <v>0.03503558301111553</v>
       </c>
       <c r="E19">
-        <v>0.04566513270254724</v>
+        <v>0.04678613497102724</v>
       </c>
       <c r="F19">
-        <v>2.247224502598428</v>
+        <v>1.827624781115063</v>
       </c>
       <c r="G19">
-        <v>0.0007919398514776883</v>
+        <v>0.0006378287995376652</v>
       </c>
       <c r="H19">
-        <v>0.02692872125044943</v>
+        <v>0.02703011701242275</v>
       </c>
       <c r="I19">
-        <v>0.003296788286335506</v>
+        <v>0.00382053732359644</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.112235282684466</v>
+        <v>0.8268543196378033</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.3369009197331891</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.2939395836178917</v>
       </c>
       <c r="N19">
-        <v>0.3368251694753184</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.7720997902405813</v>
+        <v>0.3431403598077054</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0.704579693966104</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.830845684752433</v>
+        <v>5.117853440666522</v>
       </c>
       <c r="C20">
-        <v>1.408812142032957</v>
+        <v>1.47174215117866</v>
       </c>
       <c r="D20">
-        <v>0.04929268722995062</v>
+        <v>0.03683481066116379</v>
       </c>
       <c r="E20">
-        <v>0.04678281312911747</v>
+        <v>0.04476347430598038</v>
       </c>
       <c r="F20">
-        <v>2.670365555841158</v>
+        <v>2.119235364861282</v>
       </c>
       <c r="G20">
-        <v>0.0007878256528987541</v>
+        <v>0.003168713634549292</v>
       </c>
       <c r="H20">
-        <v>0.002648514237976407</v>
+        <v>0.002423211651605861</v>
       </c>
       <c r="I20">
-        <v>0.005187670742736294</v>
+        <v>0.005153030390265378</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.368731702179375</v>
+        <v>0.990847052517644</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.3923731556626322</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.362863507145704</v>
       </c>
       <c r="N20">
-        <v>0.5727973730801352</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.8344652524345832</v>
+        <v>0.5782180109775652</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0.7089855346109557</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.615799648039797</v>
+        <v>5.507475703783712</v>
       </c>
       <c r="C21">
-        <v>1.600290805853717</v>
+        <v>1.502605517635686</v>
       </c>
       <c r="D21">
-        <v>0.05072527496748691</v>
+        <v>0.03620034280876361</v>
       </c>
       <c r="E21">
-        <v>0.05426149558775384</v>
+        <v>0.04985593036833125</v>
       </c>
       <c r="F21">
-        <v>2.993416175438426</v>
+        <v>2.101189502124328</v>
       </c>
       <c r="G21">
-        <v>0.000780324749380074</v>
+        <v>0.06566542938757181</v>
       </c>
       <c r="H21">
-        <v>0.005954651535213573</v>
+        <v>0.004252981573733106</v>
       </c>
       <c r="I21">
-        <v>0.009681762514551551</v>
+        <v>0.007392061596232402</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.509232281712428</v>
+        <v>0.9527168046704375</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.3643977479673239</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.3653579715389341</v>
       </c>
       <c r="N21">
-        <v>0.6652781525645679</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.8071735383095984</v>
+        <v>0.6515457147046533</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0.6605628867285032</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.121770501248193</v>
+        <v>5.734491020698385</v>
       </c>
       <c r="C22">
-        <v>1.726383899387542</v>
+        <v>1.513501792925069</v>
       </c>
       <c r="D22">
-        <v>0.05141153174861302</v>
+        <v>0.03677978602660303</v>
       </c>
       <c r="E22">
-        <v>0.05905013835934492</v>
+        <v>0.05350528197797644</v>
       </c>
       <c r="F22">
-        <v>3.199184027284588</v>
+        <v>2.07006543573759</v>
       </c>
       <c r="G22">
-        <v>0.0007755526126493884</v>
+        <v>0.1560414623827668</v>
       </c>
       <c r="H22">
-        <v>0.008801203762338422</v>
+        <v>0.005719623310468047</v>
       </c>
       <c r="I22">
-        <v>0.01320554673185992</v>
+        <v>0.008761817082763024</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.59694253570585</v>
+        <v>0.9185495444801077</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.3437238039487056</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.3628866531524437</v>
       </c>
       <c r="N22">
-        <v>0.7143701808633693</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0.7878725920736187</v>
+        <v>0.6865127125562509</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0.6355954418009286</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.861821780920025</v>
+        <v>5.653107297387066</v>
       </c>
       <c r="C23">
-        <v>1.65735685674241</v>
+        <v>1.523664316097097</v>
       </c>
       <c r="D23">
-        <v>0.05126378345838845</v>
+        <v>0.0363815087873105</v>
       </c>
       <c r="E23">
-        <v>0.05652652989649454</v>
+        <v>0.05140439203801472</v>
       </c>
       <c r="F23">
-        <v>3.096838663242721</v>
+        <v>2.120949303321893</v>
       </c>
       <c r="G23">
-        <v>0.000778056970372983</v>
+        <v>0.08960661105314216</v>
       </c>
       <c r="H23">
-        <v>0.007238162510799118</v>
+        <v>0.004975671368089185</v>
       </c>
       <c r="I23">
-        <v>0.01100259061466158</v>
+        <v>0.007761148234831872</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.555582137863198</v>
+        <v>0.9543355441621415</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.3607760902192965</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.3713736746996901</v>
       </c>
       <c r="N23">
-        <v>0.688057479296674</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0.8003325449941201</v>
+        <v>0.6696966591287747</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0.6489191904006724</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.866920580122667</v>
+        <v>5.149223379502018</v>
       </c>
       <c r="C24">
-        <v>1.402906725939999</v>
+        <v>1.467757236953219</v>
       </c>
       <c r="D24">
-        <v>0.05029129912452035</v>
+        <v>0.03718310754198262</v>
       </c>
       <c r="E24">
-        <v>0.04732651845750802</v>
+        <v>0.04515045609767476</v>
       </c>
       <c r="F24">
-        <v>2.703352930985375</v>
+        <v>2.147511884648821</v>
       </c>
       <c r="G24">
-        <v>0.0007877379486743126</v>
+        <v>0.003018704719597309</v>
       </c>
       <c r="H24">
-        <v>0.002639060263497806</v>
+        <v>0.002402431648364178</v>
       </c>
       <c r="I24">
-        <v>0.004800546200089073</v>
+        <v>0.004650187666303651</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.392499347223207</v>
+        <v>1.009549788114121</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.3993964890801749</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.3698951823176131</v>
       </c>
       <c r="N24">
-        <v>0.5894561234300113</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0.8451822153112971</v>
+        <v>0.5951260316820282</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0.713077617258441</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.804920695785711</v>
+        <v>4.262183553617376</v>
       </c>
       <c r="C25">
-        <v>1.136115948963948</v>
+        <v>1.209404693681051</v>
       </c>
       <c r="D25">
-        <v>0.04912152633128031</v>
+        <v>0.03589970380968532</v>
       </c>
       <c r="E25">
-        <v>0.0381526768544096</v>
+        <v>0.03951808240301125</v>
       </c>
       <c r="F25">
-        <v>2.29118076534489</v>
+        <v>1.853906380001675</v>
       </c>
       <c r="G25">
-        <v>0.0007985108061125437</v>
+        <v>0.000813868804260931</v>
       </c>
       <c r="H25">
-        <v>0.000196057018029272</v>
+        <v>0.0004100274473930465</v>
       </c>
       <c r="I25">
-        <v>0.001415976577852085</v>
+        <v>0.002024285803397419</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.22139902065166</v>
+        <v>0.9112585069425805</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.3847106190178167</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.3077315745041744</v>
       </c>
       <c r="N25">
-        <v>0.4846722343984453</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0.8959511130000948</v>
+        <v>0.4940236195256631</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.7673347681296185</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
